--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-610122.1725629326</v>
+        <v>-612839.1837798156</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13373054.19226146</v>
+        <v>13383139.96256633</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>170.8504522020818</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.07185895027972</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.396723986041642</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>47.60797832237495</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,13 +789,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>160.3901725148234</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>369.38970840723</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.22660446706389</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>188.6946815857687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0995622639908</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>133.5057052162138</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>96.33974436151193</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.1117410536292</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5306922801482</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8331007466766</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6663446659216981</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6111319727563</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>174.5990236892092</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>250.7831302631783</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>52.55004040762809</v>
+        <v>271.6342797216649</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>47.12177955920331</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>116.4106359018091</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>5.26194897209344</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>410.4130485258811</v>
       </c>
       <c r="H11" t="n">
-        <v>233.2715658672508</v>
+        <v>72.58985517469564</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>97.59628174362032</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9544777886962</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4224477376697</v>
+        <v>134.7273029082527</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>86.96832235308709</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.44658218675589</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>123.0881387803871</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3907690366107</v>
+        <v>189.6195493075132</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7492064608734</v>
+        <v>225.769262722096</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>79.13798379103376</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>165.7976332114348</v>
       </c>
       <c r="H13" t="n">
-        <v>8.172193132420807</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.7925565474728</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.5740195273609</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1993922939259</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444149</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>170.3630141602824</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>58.47559664514497</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>32.27552175740387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>102.9630220374172</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>32.0515855939262</v>
+        <v>94.91529601901384</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,13 +2321,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>198.9788630744784</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>20.72279572932656</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.019807611472247</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>215.3025979624043</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>147.6895341487364</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.3029543659133</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="C2" t="n">
-        <v>227.726740020376</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="D2" t="n">
-        <v>227.726740020376</v>
+        <v>400.3029543659136</v>
       </c>
       <c r="E2" t="n">
-        <v>227.726740020376</v>
+        <v>400.3029543659136</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897905</v>
+        <v>210.8831693494286</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897905</v>
+        <v>21.46338433294363</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>21.46338433294363</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823981</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823981</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823981</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823981</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659133</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="X2" t="n">
-        <v>400.3029543659133</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="Y2" t="n">
-        <v>400.3029543659133</v>
+        <v>589.7227393823986</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>371.2627786323103</v>
+        <v>588.0920733977821</v>
       </c>
       <c r="C3" t="n">
-        <v>371.2627786323103</v>
+        <v>413.6390441166551</v>
       </c>
       <c r="D3" t="n">
-        <v>222.328368971059</v>
+        <v>413.6390441166551</v>
       </c>
       <c r="E3" t="n">
-        <v>63.09091396560353</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="F3" t="n">
-        <v>63.09091396560353</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G3" t="n">
-        <v>63.09091396560353</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487952</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U3" t="n">
-        <v>371.2627786323103</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323103</v>
+        <v>588.0920733977821</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323103</v>
+        <v>588.0920733977821</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323103</v>
+        <v>588.0920733977821</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.2627786323103</v>
+        <v>588.0920733977821</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>785.8246892235009</v>
+        <v>1239.348663564705</v>
       </c>
       <c r="C5" t="n">
-        <v>785.8246892235009</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="D5" t="n">
-        <v>427.5589906167504</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E5" t="n">
-        <v>54.43807303368966</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F5" t="n">
-        <v>47.49257228448619</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G5" t="n">
-        <v>35.14246676219944</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14246676219944</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
-        <v>35.14246676219944</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>114.3791390966227</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>283.8728891835386</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L5" t="n">
-        <v>531.0466356869067</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
-        <v>837.7444913982613</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1154.018847436595</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>1439.332492111294</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>1648.340086017731</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>1757.123338109972</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>1757.123338109972</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S5" t="n">
-        <v>1757.123338109972</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T5" t="n">
-        <v>1757.123338109972</v>
+        <v>1845.72448317231</v>
       </c>
       <c r="U5" t="n">
-        <v>1503.487416631193</v>
+        <v>1592.117318834819</v>
       </c>
       <c r="V5" t="n">
-        <v>1172.424529287623</v>
+        <v>1592.117318834819</v>
       </c>
       <c r="W5" t="n">
-        <v>1172.424529287623</v>
+        <v>1239.348663564705</v>
       </c>
       <c r="X5" t="n">
-        <v>1172.424529287623</v>
+        <v>1239.348663564705</v>
       </c>
       <c r="Y5" t="n">
-        <v>1172.424529287623</v>
+        <v>1239.348663564705</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438.2273528332063</v>
+        <v>498.3001248569636</v>
       </c>
       <c r="C6" t="n">
-        <v>438.2273528332063</v>
+        <v>363.4458771638183</v>
       </c>
       <c r="D6" t="n">
-        <v>438.2273528332063</v>
+        <v>363.4458771638183</v>
       </c>
       <c r="E6" t="n">
-        <v>278.9898978277508</v>
+        <v>363.4458771638183</v>
       </c>
       <c r="F6" t="n">
-        <v>132.4553398546358</v>
+        <v>216.9113191907033</v>
       </c>
       <c r="G6" t="n">
-        <v>132.4553398546358</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H6" t="n">
-        <v>35.14246676219944</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
-        <v>35.14246676219944</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>63.51743902204111</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K6" t="n">
-        <v>190.1696108381216</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>406.7916268487793</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M6" t="n">
-        <v>678.9361703050718</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N6" t="n">
-        <v>972.6922149510372</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O6" t="n">
-        <v>1219.201810701765</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P6" t="n">
-        <v>1397.714427718302</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q6" t="n">
-        <v>1467.126188298633</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1467.126188298633</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S6" t="n">
-        <v>1324.58907612325</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T6" t="n">
-        <v>1129.103528365525</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U6" t="n">
-        <v>900.9892851870637</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="V6" t="n">
-        <v>900.3162097669408</v>
+        <v>1336.36461757572</v>
       </c>
       <c r="W6" t="n">
-        <v>646.0788530387391</v>
+        <v>1082.127260847518</v>
       </c>
       <c r="X6" t="n">
-        <v>438.2273528332063</v>
+        <v>874.2757606419855</v>
       </c>
       <c r="Y6" t="n">
-        <v>438.2273528332063</v>
+        <v>666.5154618770316</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.4365394619533</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>203.4365394619533</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>203.4365394619533</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>203.4365394619533</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>203.4365394619533</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>35.14246676219944</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>35.14246676219944</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>35.14246676219944</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>35.14246676219944</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>66.129387476861</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L7" t="n">
-        <v>135.6877752704306</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M7" t="n">
-        <v>212.2856254073021</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N7" t="n">
-        <v>294.9196757784799</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O7" t="n">
-        <v>350.9325070872658</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P7" t="n">
-        <v>379.7991896530738</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>379.7991896530738</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>379.7991896530738</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>379.7991896530738</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T7" t="n">
-        <v>203.4365394619533</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U7" t="n">
-        <v>203.4365394619533</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V7" t="n">
-        <v>203.4365394619533</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W7" t="n">
-        <v>203.4365394619533</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
-        <v>203.4365394619533</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.4365394619533</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1318.662444235091</v>
+        <v>1073.79184932419</v>
       </c>
       <c r="C8" t="n">
-        <v>949.6999272946798</v>
+        <v>1073.79184932419</v>
       </c>
       <c r="D8" t="n">
-        <v>591.4342286879294</v>
+        <v>715.52615071744</v>
       </c>
       <c r="E8" t="n">
-        <v>591.4342286879294</v>
+        <v>329.7378981191958</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1705.262284299213</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>1705.262284299213</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="X8" t="n">
-        <v>1705.262284299213</v>
+        <v>1463.931181300002</v>
       </c>
       <c r="Y8" t="n">
-        <v>1705.262284299213</v>
+        <v>1073.79184932419</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>645.4126892524793</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>470.9596599713523</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>322.025250310101</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>322.025250310101</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4908,25 +4908,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1718.629290202978</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1483.477181971235</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1229.239825243034</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1021.388325037501</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>813.6280262725472</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.4664265514521</v>
+        <v>48.68429650990461</v>
       </c>
       <c r="C10" t="n">
-        <v>497.4664265514521</v>
+        <v>48.68429650990461</v>
       </c>
       <c r="D10" t="n">
-        <v>379.8799256405338</v>
+        <v>48.68429650990461</v>
       </c>
       <c r="E10" t="n">
-        <v>379.8799256405338</v>
+        <v>48.68429650990461</v>
       </c>
       <c r="F10" t="n">
-        <v>379.8799256405338</v>
+        <v>48.68429650990461</v>
       </c>
       <c r="G10" t="n">
-        <v>211.7470962355521</v>
+        <v>48.68429650990461</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>48.68429650990461</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>48.68429650990461</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
@@ -5002,10 +5002,10 @@
         <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>497.4664265514521</v>
+        <v>269.4768756534347</v>
       </c>
       <c r="Y10" t="n">
-        <v>497.4664265514521</v>
+        <v>48.68429650990461</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555042</v>
+        <v>2090.801015348583</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614631</v>
+        <v>1721.838498408171</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.19673200788</v>
+        <v>1363.572799801421</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.408479409636</v>
+        <v>977.7845472031765</v>
       </c>
       <c r="F11" t="n">
-        <v>742.4225746200284</v>
+        <v>566.798642413569</v>
       </c>
       <c r="G11" t="n">
-        <v>328.4394675364348</v>
+        <v>152.2400075389417</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608053</v>
+        <v>78.91692150389555</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608053</v>
+        <v>78.91692150389555</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251935</v>
+        <v>310.5376544656539</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128753</v>
+        <v>708.4156099402705</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.45766301865</v>
+        <v>1238.920158339963</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957687</v>
+        <v>1860.878123161961</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874793</v>
+        <v>2497.513826470646</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333932</v>
+        <v>3085.335606994461</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021279</v>
+        <v>3552.526896075043</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>3855.195350919256</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>3945.846075194778</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>3847.263972423444</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>3847.263972423444</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469741</v>
+        <v>3593.774600919711</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.39853312617</v>
+        <v>3593.774600919711</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856056</v>
+        <v>3241.005945649596</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594976</v>
+        <v>2867.540187388517</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619164</v>
+        <v>2477.400855412705</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>942.6241165038822</v>
+        <v>941.553350645143</v>
       </c>
       <c r="C12" t="n">
-        <v>768.1710872227552</v>
+        <v>767.1003213640161</v>
       </c>
       <c r="D12" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1659117027648</v>
       </c>
       <c r="E12" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9284566973093</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3938987241943</v>
       </c>
       <c r="G12" t="n">
-        <v>177.6844143428629</v>
+        <v>176.3057139683834</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608053</v>
+        <v>88.45892371273989</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608053</v>
+        <v>78.91692150389555</v>
       </c>
       <c r="J12" t="n">
-        <v>230.7148205699762</v>
+        <v>198.0507963380535</v>
       </c>
       <c r="K12" t="n">
-        <v>561.223563133335</v>
+        <v>479.8243885189549</v>
       </c>
       <c r="L12" t="n">
-        <v>561.223563133335</v>
+        <v>905.0262973823831</v>
       </c>
       <c r="M12" t="n">
-        <v>1153.241917385463</v>
+        <v>1420.573737719891</v>
       </c>
       <c r="N12" t="n">
-        <v>1775.337880784799</v>
+        <v>1964.174829659593</v>
       </c>
       <c r="O12" t="n">
-        <v>2322.214355784993</v>
+        <v>2196.734372171985</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2558.686063524931</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2558.686063524931</v>
       </c>
       <c r="R12" t="n">
-        <v>2552.77562977024</v>
+        <v>2558.686063524931</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.354610211409</v>
       </c>
       <c r="T12" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.819711920991</v>
       </c>
       <c r="U12" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.769951595642</v>
       </c>
       <c r="V12" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.617843363899</v>
       </c>
       <c r="W12" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.380486635698</v>
       </c>
       <c r="X12" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.528986430165</v>
       </c>
       <c r="Y12" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.768687665211</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>964.7673076102598</v>
+        <v>393.279225781033</v>
       </c>
       <c r="C13" t="n">
-        <v>795.8311246823529</v>
+        <v>393.279225781033</v>
       </c>
       <c r="D13" t="n">
-        <v>645.7144852700171</v>
+        <v>393.279225781033</v>
       </c>
       <c r="E13" t="n">
-        <v>497.801391687624</v>
+        <v>393.279225781033</v>
       </c>
       <c r="F13" t="n">
-        <v>350.9114441897136</v>
+        <v>246.3892782831226</v>
       </c>
       <c r="G13" t="n">
-        <v>183.6972493642925</v>
+        <v>78.91692150389555</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>78.91692150389555</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608053</v>
+        <v>78.91692150389555</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156344</v>
+        <v>140.0102100570379</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>370.2420869801105</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693323</v>
+        <v>720.3860579836929</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>1099.952904694123</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1475.92911658525</v>
       </c>
       <c r="O13" t="n">
-        <v>2020.132206020528</v>
+        <v>1807.187706265507</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856733</v>
+        <v>2067.115974197813</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410168</v>
+        <v>2163.641753620775</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410168</v>
+        <v>2163.641753620775</v>
       </c>
       <c r="S13" t="n">
-        <v>2428.375774410168</v>
+        <v>1975.972504582924</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.375774410168</v>
+        <v>1755.190666676498</v>
       </c>
       <c r="U13" t="n">
-        <v>2139.299560724894</v>
+        <v>1466.100371430109</v>
       </c>
       <c r="V13" t="n">
-        <v>1884.615072519008</v>
+        <v>1211.415883224222</v>
       </c>
       <c r="W13" t="n">
-        <v>1595.197902482047</v>
+        <v>921.998713187261</v>
       </c>
       <c r="X13" t="n">
-        <v>1367.20835158403</v>
+        <v>694.0091622892437</v>
       </c>
       <c r="Y13" t="n">
-        <v>1146.415772440499</v>
+        <v>473.2165831457136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362697</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5306,22 +5306,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5367,13 +5367,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>810.0653816078141</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799072</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
@@ -5464,22 +5464,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2092.024396548011</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1802.949169892209</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1548.264681686322</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1258.847511649361</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1030.857960751344</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y16" t="n">
-        <v>810.0653816078141</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.18466155292</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>989.3306680894883</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C22" t="n">
-        <v>820.3944851615814</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D22" t="n">
-        <v>670.2778457492457</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E22" t="n">
-        <v>522.3647521668526</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F22" t="n">
-        <v>375.4748046689422</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G22" t="n">
-        <v>208.2787053838221</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y22" t="n">
-        <v>1170.979132919728</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>614.6217844681063</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>302.45403664168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>302.45403664168</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>160.7422054838781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6549,13 +6549,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>701.3802915967227</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>551.263652184387</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>403.3505586019938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>256.4606111040835</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>256.4606111040835</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>114.7487799462815</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>576.8388927589092</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.371145873544</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1496.686657667657</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1207.269487630696</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>979.2799367326791</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>758.4873575891489</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>194.4224395689257</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>79.51323802232837</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>161.715381551093</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50.29152613729357</v>
+        <v>216.8084195798743</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>21.96615481219195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.6912360136732</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>100.6939963909035</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>132.2817966595331</v>
+        <v>142.7263313093538</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.49057443311936</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>78.672572802801</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>47.04243616700589</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>167.2340587438922</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>185.1299285698844</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>183.5599762991737</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>108.2431272522977</v>
+        <v>45.37941682721005</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.60579027761636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>15.00954930701842</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>60.54304058923897</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>62.35543909864944</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>71.22040037418671</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>138.4949402405077</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1070105.520563425</v>
+        <v>1160965.335467732</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1157847.385779477</v>
+        <v>1066987.570875171</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>244059.1538127109</v>
+        <v>264781.5677382545</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>260870.92578236</v>
+        <v>240148.5118568166</v>
       </c>
       <c r="F2" t="n">
+        <v>262322.6448992518</v>
+      </c>
+      <c r="G2" t="n">
+        <v>262322.644899252</v>
+      </c>
+      <c r="H2" t="n">
         <v>262322.6448992519</v>
-      </c>
-      <c r="G2" t="n">
-        <v>262322.6448992519</v>
-      </c>
-      <c r="H2" t="n">
-        <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
+        <v>262322.644899252</v>
+      </c>
+      <c r="K2" t="n">
         <v>262322.6448992519</v>
       </c>
-      <c r="K2" t="n">
-        <v>262322.644899252</v>
-      </c>
       <c r="L2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="O2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="P2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>278678.7256615261</v>
+        <v>392510.2442861773</v>
       </c>
       <c r="D3" t="n">
-        <v>107755.330640533</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>589710.8045858953</v>
+        <v>423985.6110435344</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504158</v>
+        <v>173247.6706769733</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>64793.74450285037</v>
+        <v>91259.95686487763</v>
       </c>
       <c r="L3" t="n">
-        <v>26026.39082138365</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>154015.6312544153</v>
+        <v>110732.9406547231</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704785</v>
+        <v>45616.86246457474</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238531.1995057566</v>
+        <v>274924.0351826669</v>
       </c>
       <c r="C4" t="n">
-        <v>204455.3553457812</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14820.16342064201</v>
+        <v>14730.20084411074</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186738</v>
@@ -26442,22 +26442,22 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>77016.97522569948</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>100142.1285138384</v>
+        <v>86492.42130943762</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-642814.7486255047</v>
+        <v>-658500.993511238</v>
       </c>
       <c r="C6" t="n">
-        <v>-293312.4810271147</v>
+        <v>-385073.7410250552</v>
       </c>
       <c r="D6" t="n">
-        <v>-100318.8273794109</v>
+        <v>7436.503261122125</v>
       </c>
       <c r="E6" t="n">
-        <v>-443802.1707380157</v>
+        <v>-285265.0295198744</v>
       </c>
       <c r="F6" t="n">
-        <v>134921.1559184358</v>
+        <v>-26908.98956893157</v>
       </c>
       <c r="G6" t="n">
-        <v>146373.4190334776</v>
+        <v>146338.681108042</v>
       </c>
       <c r="H6" t="n">
-        <v>146373.4190334775</v>
+        <v>146338.6811080417</v>
       </c>
       <c r="I6" t="n">
-        <v>146373.4190334774</v>
+        <v>146338.6811080417</v>
       </c>
       <c r="J6" t="n">
-        <v>97308.4743049328</v>
+        <v>97273.73637949716</v>
       </c>
       <c r="K6" t="n">
-        <v>81579.67453062719</v>
+        <v>55078.72424316411</v>
       </c>
       <c r="L6" t="n">
-        <v>120347.0282120939</v>
+        <v>146338.6811080417</v>
       </c>
       <c r="M6" t="n">
-        <v>-7642.212220937858</v>
+        <v>35605.74045331872</v>
       </c>
       <c r="N6" t="n">
-        <v>143296.4016777726</v>
+        <v>100721.8186434671</v>
       </c>
       <c r="O6" t="n">
-        <v>146373.4190334775</v>
+        <v>146338.6811080418</v>
       </c>
       <c r="P6" t="n">
-        <v>146373.4190334774</v>
+        <v>146338.6811080418</v>
       </c>
     </row>
   </sheetData>
@@ -26701,16 +26701,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.015790261611063e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>765.1880957077022</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1216.310136076927</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>439.280834527493</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>986.4615187986944</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>216.7181547947976</v>
+        <v>305.2407236247793</v>
       </c>
       <c r="D3" t="n">
-        <v>88.52256882998188</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.3303841787015</v>
+        <v>362.5994715392426</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>151.6653642647473</v>
       </c>
       <c r="G3" t="n">
         <v>-2.273736754432321e-13</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>251.755247361173</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="D4" t="n">
-        <v>102.8341221986702</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>618.0303335998433</v>
+        <v>444.3465620725312</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364188</v>
+        <v>186.2467693009539</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>251.755247361173</v>
+        <v>354.5893695598429</v>
       </c>
       <c r="L4" t="n">
-        <v>102.8341221986702</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.0303335998433</v>
+        <v>444.3465620725312</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364188</v>
+        <v>186.2467693009539</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>251.755247361173</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>102.8341221986702</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.0303335998433</v>
+        <v>444.3465620725312</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364188</v>
+        <v>186.2467693009539</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543628</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>383.8041867914317</v>
+        <v>139.8372205530629</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>119.074593133933</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,16 +27470,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.23377902836475</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681227</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377091</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>72.41041463460186</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>4.85405337381949</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
-        <v>80.60642335625585</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>12.54066166503173</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.9713545372084</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>91.88327023464231</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>22.3543952332318</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>138.9226877533237</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.6300771461998</v>
+        <v>19.3775762838352</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>39.20279377210193</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6976408818771</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>42.85514838391072</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>43.49079940888625</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>232.1342424835036</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>149.9590748418308</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>113.9547008190439</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>29.44021127023547</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.96159917758281</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>115.2504352891319</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>199.969621324322</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>47.45085418198011</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2437649536344</v>
+        <v>35.45192755253842</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>354.3260053340833</v>
+        <v>135.2417660200465</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27947,10 +27947,10 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>117.2980339485929</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>178.6987944088652</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>32.20483711640325</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>12.89236036714581</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.8421709430404e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29041,13 +29041,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.076133048071163</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>31.5034475785588</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>118.5926193357636</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>261.0829472887301</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>391.2956592135824</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>485.4368659834904</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>540.1420470771259</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>548.8821100999581</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>518.2938121032005</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>442.3517774789436</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>332.187762694895</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>193.2311425809003</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>70.09738183292168</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>13.46577241793152</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.246090643845693</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.645876281333548</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>15.89569987498454</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>56.66723161608928</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>155.4992148079209</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>265.7729256572686</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>357.3644969623567</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>417.0275121606977</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>428.0649895035004</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>391.5958361118464</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>314.2901821785089</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0946635611035</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>102.1887045550777</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>30.57143005020865</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>6.634036414673378</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1082813342982598</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.379847385702414</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>12.26809766560874</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>41.49577410821442</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>97.55521016916065</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>160.3131780843349</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>205.1456740525207</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>216.2973497424247</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>211.1542822138977</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>195.0351559354649</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>166.8862692671355</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>115.543402451863</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>62.04295608803761</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>24.04697671265024</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>5.89571155709213</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07526440285649538</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>4.889688989253973</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>50.07652736119726</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>188.509734758214</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>415.0062408516948</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>621.9867757668155</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>771.629595171697</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293309</v>
+        <v>858.5866017343424</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>872.4794305750603</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>823.857585688166</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>703.1433887659584</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>528.0314018383003</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>307.1519259712252</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>111.423787842625</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>21.40461355045928</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.3911751191403178</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.616214254957918</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>25.26712188340937</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>90.07579781324411</v>
       </c>
       <c r="J12" t="n">
-        <v>266.1337855998946</v>
+        <v>247.174873973897</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>422.4612290560775</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>568.0512574197006</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>662.889024161925</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>680.4337241436385</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>377.5048732448408</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>499.5821764577098</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>48.59503232345077</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>10.54517938730845</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1721193588788105</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.193346147023966</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>19.50084119808582</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>65.95990049413892</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>155.0695725945944</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>254.8269432633298</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>326.0907535311813</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>343.8169783012204</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>335.6417790259495</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>310.019508126624</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>265.2752467273348</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>183.6628305476159</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>98.62081857436849</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>38.22404148949946</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>9.37156990092058</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1196370625649437</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>230.1272937575231</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32096,7 +32096,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,13 +32561,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,13 +33509,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>80.03704276204377</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>171.2058081686019</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>249.6704510135032</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>309.7958138498532</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>319.4690465033672</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>288.1956006815137</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>211.118781723674</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>109.8820728204455</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>28.66158814125421</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K6" t="n">
-        <v>127.9314866829096</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L6" t="n">
-        <v>218.8101171824825</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>274.8934782386793</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>296.7232774201671</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>248.999591667402</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>180.3157747641787</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.11288947508197</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>31.29991991379956</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L7" t="n">
-        <v>70.26099777128243</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M7" t="n">
-        <v>77.37156579481965</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N7" t="n">
-        <v>83.46873774866449</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O7" t="n">
-        <v>56.57861748362208</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P7" t="n">
-        <v>29.15826521798789</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>233.9603363250085</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>401.896924721835</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>535.8631802017098</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020582</v>
+        <v>628.2403685070697</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>643.0663669784694</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>593.7593742664792</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>471.9103930106889</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>305.7257119638508</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>91.56638815709306</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>139.296158933228</v>
+        <v>120.3372473072303</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>284.6197900817185</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>429.4968776398264</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>520.7549902399066</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>549.0920120603053</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>234.9086288003964</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>365.6077690433796</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>61.7103924779216</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>232.557451437447</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>353.6807787914975</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>383.400855263061</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>379.7739514051781</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>334.6046360406636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>262.5538059922283</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>97.50078729592154</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>98.78558167418976</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,13 +36209,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,13 +37157,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
